--- a/bots/crawl_ch/output/electronics_2022-08-12.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-12.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -1808,50 +1808,48 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1861,7 +1859,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1871,58 +1869,60 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 30% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1942,39 +1942,39 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 30% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2013,39 +2013,39 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2084,17 +2084,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 12 Stück 29.85 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -2380,29 +2380,29 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2441,39 +2441,39 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3480,40 +3480,34 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3521,107 +3515,113 @@
           <t>8.95</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2.24/1ST</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3631,12 +3631,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3645,17 +3645,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -4924,29 +4924,29 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4960,12 +4960,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4985,39 +4985,39 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 30% ab 2 Aktion 7.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 30% ab 2 Aktion 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5056,17 +5056,17 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 30% ab 2 Aktion 12.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 30% ab 2 Aktion 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:13</t>
+          <t>2022-08-12 20:58:06</t>
         </is>
       </c>
     </row>
